--- a/公司文件/文档资料/201812考勤明细_德贤.xlsx
+++ b/公司文件/文档资料/201812考勤明细_德贤.xlsx
@@ -23,23 +23,30 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">德贤2018 </t>
-    </r>
-    <r>
       <rPr>
         <b/>
         <sz val="28"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>12</t>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">德贤2018 </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="28"/>
         <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="28"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -81,6 +88,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>王</t>
     </r>
     <r>
@@ -122,6 +135,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>王</t>
     </r>
     <r>
@@ -163,6 +182,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>王</t>
     </r>
     <r>
@@ -204,6 +229,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>曾小蒙</t>
     </r>
     <r>
@@ -227,6 +258,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>李观清</t>
     </r>
     <r>
@@ -250,6 +287,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>李观清</t>
     </r>
     <r>
@@ -273,6 +316,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>王</t>
     </r>
     <r>
@@ -314,6 +363,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>曾小蒙</t>
     </r>
     <r>
@@ -337,6 +392,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>王</t>
     </r>
     <r>
@@ -373,11 +434,17 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>，请假搬家5小时；</t>
-    </r>
-  </si>
-  <si>
-    <r>
+      <t>，请假搬家4小时；</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>李观清</t>
     </r>
     <r>
@@ -406,8 +473,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -447,6 +514,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -454,12 +528,80 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -473,26 +615,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -505,95 +655,12 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -616,187 +683,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,30 +888,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -896,6 +939,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -914,159 +975,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1440,8 +1507,8 @@
   <sheetPr/>
   <dimension ref="A1:AH18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="Y19" sqref="Y19"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1669,14 +1736,14 @@
         <v>0</v>
       </c>
       <c r="AC3" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD3" s="8"/>
       <c r="AE3" s="8"/>
       <c r="AF3" s="8"/>
       <c r="AG3" s="10">
         <f>C3+D3+E3+F3+G3+H3+I3+J3+K3+L3+M3+N3+O3+P3+Q3+R3+S3+T3+U3+V3+W3+X3+Y3+Z3+AA3+AB3+AC3+AD3+AE3+AF3+B3</f>
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AH3" s="5" t="s">
         <v>3</v>

--- a/公司文件/文档资料/201812考勤明细_德贤.xlsx
+++ b/公司文件/文档资料/201812考勤明细_德贤.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>日期</t>
   </si>
@@ -439,12 +439,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>李观清</t>
     </r>
     <r>
@@ -464,6 +458,29 @@
         <charset val="134"/>
       </rPr>
       <t>，从新开始上班；</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>李观清</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2018.12.29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，办健康证算上班一天；</t>
     </r>
   </si>
 </sst>
@@ -472,10 +489,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -514,6 +531,22 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -528,10 +561,34 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -540,28 +597,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -583,33 +643,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -617,38 +666,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -683,37 +700,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,145 +874,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,36 +909,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -940,17 +927,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -976,164 +984,173 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1505,10 +1522,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AH18"/>
+  <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1738,12 +1755,14 @@
       <c r="AC3" s="8">
         <v>7</v>
       </c>
-      <c r="AD3" s="8"/>
+      <c r="AD3" s="8">
+        <v>11</v>
+      </c>
       <c r="AE3" s="8"/>
       <c r="AF3" s="8"/>
       <c r="AG3" s="10">
         <f>C3+D3+E3+F3+G3+H3+I3+J3+K3+L3+M3+N3+O3+P3+Q3+R3+S3+T3+U3+V3+W3+X3+Y3+Z3+AA3+AB3+AC3+AD3+AE3+AF3+B3</f>
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="AH3" s="5" t="s">
         <v>3</v>
@@ -1837,12 +1856,14 @@
       <c r="AC4" s="8">
         <v>9</v>
       </c>
-      <c r="AD4" s="8"/>
+      <c r="AD4" s="8">
+        <v>9</v>
+      </c>
       <c r="AE4" s="8"/>
       <c r="AF4" s="8"/>
       <c r="AG4" s="10">
         <f>C4+D4+E4+F4+G4+H4+I4+J4+K4+L4+M4+N4+O4+P4+Q4+R4+S4+T4+U4+V4+W4+X4+Y4+Z4+AA4+AB4+AC4+AD4+AE4+AF4+B4</f>
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="AH4" s="5" t="s">
         <v>4</v>
@@ -1936,12 +1957,14 @@
       <c r="AC5" s="8">
         <v>9</v>
       </c>
-      <c r="AD5" s="8"/>
+      <c r="AD5" s="8">
+        <v>9</v>
+      </c>
       <c r="AE5" s="8"/>
       <c r="AF5" s="8"/>
       <c r="AG5" s="10">
         <f>C5+D5+E5+F5+G5+H5+I5+J5+K5+L5+M5+N5+O5+P5+Q5+R5+S5+T5+U5+V5+W5+X5+Y5+Z5+AA5+AB5+AC5+AD5+AE5+AF5+B5</f>
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AH5" s="5" t="s">
         <v>5</v>
@@ -2127,6 +2150,14 @@
       </c>
       <c r="U18" s="9" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="20:21">
+      <c r="T19">
+        <v>11</v>
+      </c>
+      <c r="U19" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/公司文件/文档资料/201812考勤明细_德贤.xlsx
+++ b/公司文件/文档资料/201812考勤明细_德贤.xlsx
@@ -439,6 +439,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>李观清</t>
     </r>
     <r>
@@ -462,6 +468,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>李观清</t>
     </r>
     <r>
@@ -489,10 +501,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -531,6 +543,103 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -543,28 +652,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -573,14 +660,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -589,33 +668,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -627,57 +684,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -700,187 +712,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,30 +921,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -944,41 +932,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1001,6 +954,65 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1009,148 +1021,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1525,7 +1537,7 @@
   <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Y19" sqref="Y19"/>
+      <selection activeCell="AE17" sqref="AE17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1758,11 +1770,15 @@
       <c r="AD3" s="8">
         <v>11</v>
       </c>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8"/>
+      <c r="AE3" s="8">
+        <v>11</v>
+      </c>
+      <c r="AF3" s="8">
+        <v>11</v>
+      </c>
       <c r="AG3" s="10">
         <f>C3+D3+E3+F3+G3+H3+I3+J3+K3+L3+M3+N3+O3+P3+Q3+R3+S3+T3+U3+V3+W3+X3+Y3+Z3+AA3+AB3+AC3+AD3+AE3+AF3+B3</f>
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="AH3" s="5" t="s">
         <v>3</v>
@@ -1859,11 +1875,15 @@
       <c r="AD4" s="8">
         <v>9</v>
       </c>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="8"/>
+      <c r="AE4" s="8">
+        <v>9</v>
+      </c>
+      <c r="AF4" s="8">
+        <v>9</v>
+      </c>
       <c r="AG4" s="10">
         <f>C4+D4+E4+F4+G4+H4+I4+J4+K4+L4+M4+N4+O4+P4+Q4+R4+S4+T4+U4+V4+W4+X4+Y4+Z4+AA4+AB4+AC4+AD4+AE4+AF4+B4</f>
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="AH4" s="5" t="s">
         <v>4</v>
@@ -1960,11 +1980,15 @@
       <c r="AD5" s="8">
         <v>9</v>
       </c>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="8"/>
+      <c r="AE5" s="8">
+        <v>9</v>
+      </c>
+      <c r="AF5" s="8">
+        <v>9</v>
+      </c>
       <c r="AG5" s="10">
         <f>C5+D5+E5+F5+G5+H5+I5+J5+K5+L5+M5+N5+O5+P5+Q5+R5+S5+T5+U5+V5+W5+X5+Y5+Z5+AA5+AB5+AC5+AD5+AE5+AF5+B5</f>
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="AH5" s="5" t="s">
         <v>5</v>

--- a/公司文件/文档资料/201812考勤明细_德贤.xlsx
+++ b/公司文件/文档资料/201812考勤明细_德贤.xlsx
@@ -501,10 +501,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -543,7 +543,75 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -555,34 +623,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -591,40 +631,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -644,25 +655,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -675,21 +690,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -712,187 +712,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,6 +921,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -932,6 +956,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -954,65 +1013,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1021,148 +1021,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1536,8 +1536,8 @@
   <sheetPr/>
   <dimension ref="A1:AH19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AE17" sqref="AE17"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AH10" sqref="AH10:AH11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
